--- a/spliced/falling/2023-03-25_17-58-47/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.7831352591514585</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0247611999511718</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.972880363464355</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7428256273269653</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-58-47/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-47/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.325653553009033</v>
+        <v>-2.246021509170532</v>
       </c>
       <c r="B2" t="n">
-        <v>2.315335750579834</v>
+        <v>2.530338048934937</v>
       </c>
       <c r="C2" t="n">
-        <v>2.114412546157837</v>
+        <v>1.034301340579987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.993824815750122</v>
+        <v>-2.397771739959717</v>
       </c>
       <c r="B3" t="n">
-        <v>2.412744569778442</v>
+        <v>2.518170547485352</v>
       </c>
       <c r="C3" t="n">
-        <v>2.562826609611511</v>
+        <v>0.915059447288513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.099692916870118</v>
+        <v>-2.324807786941528</v>
       </c>
       <c r="B4" t="n">
-        <v>2.386767387390137</v>
+        <v>2.547794580459595</v>
       </c>
       <c r="C4" t="n">
-        <v>2.678394412994385</v>
+        <v>0.7709671020507812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.539734458923342</v>
+        <v>-2.206723213195801</v>
       </c>
       <c r="B5" t="n">
-        <v>2.251132488250732</v>
+        <v>2.590793609619141</v>
       </c>
       <c r="C5" t="n">
-        <v>2.302260518074033</v>
+        <v>0.8417039632797245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.798751735687256</v>
+        <v>-2.01174955368042</v>
       </c>
       <c r="B6" t="n">
-        <v>1.147012233734121</v>
+        <v>2.60823769569397</v>
       </c>
       <c r="C6" t="n">
-        <v>2.277631902694703</v>
+        <v>1.090024280548096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.073579788208008</v>
+        <v>-2.355203628540039</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.642811775207524</v>
+        <v>2.568441867828369</v>
       </c>
       <c r="C7" t="n">
-        <v>3.430169939994816</v>
+        <v>0.8857938051223755</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.291536808013922</v>
+        <v>-2.247145366668701</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.572477817535406</v>
+        <v>2.438617801666259</v>
       </c>
       <c r="C8" t="n">
-        <v>5.254911422729497</v>
+        <v>0.8904013574123383</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.406326150894171</v>
+        <v>-2.348918724060059</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.793146014213552</v>
+        <v>2.538596057891846</v>
       </c>
       <c r="C9" t="n">
-        <v>5.593617057800286</v>
+        <v>1.142265951633454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9536849975587334</v>
+        <v>-2.434140348434448</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1826061248779267</v>
+        <v>2.598772668838501</v>
       </c>
       <c r="C10" t="n">
-        <v>2.677957320213301</v>
+        <v>1.196871364116669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32.34990999698625</v>
+        <v>-2.469630908966064</v>
       </c>
       <c r="B11" t="n">
-        <v>0.490568253397939</v>
+        <v>2.608709144592285</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6328019738197053</v>
+        <v>0.9890874266624448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.651923894882202</v>
+        <v>-2.473813533782959</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1518822014331817</v>
+        <v>2.590450048446655</v>
       </c>
       <c r="C12" t="n">
-        <v>6.22404146194458</v>
+        <v>0.9850140511989596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.871152138710036</v>
+        <v>-2.382417774200439</v>
       </c>
       <c r="B13" t="n">
-        <v>1.64225258529187</v>
+        <v>2.536800479888916</v>
       </c>
       <c r="C13" t="n">
-        <v>4.566823816299431</v>
+        <v>1.009570789337157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.492228031158454</v>
+        <v>-2.251543283462525</v>
       </c>
       <c r="B14" t="n">
-        <v>3.64010591506959</v>
+        <v>2.502760457992554</v>
       </c>
       <c r="C14" t="n">
-        <v>1.834508514404282</v>
+        <v>0.9712224066257489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.539169025421104</v>
+        <v>-2.286794948577881</v>
       </c>
       <c r="B15" t="n">
-        <v>1.307969903945902</v>
+        <v>2.536056137084961</v>
       </c>
       <c r="C15" t="n">
-        <v>4.571132516860986</v>
+        <v>1.293239164352417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.01956577301027</v>
+        <v>-2.406369590759277</v>
       </c>
       <c r="B16" t="n">
-        <v>2.104999399185199</v>
+        <v>2.443658208847046</v>
       </c>
       <c r="C16" t="n">
-        <v>2.938691687583895</v>
+        <v>1.501735496520997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.502372264862058</v>
+        <v>-2.325653553009033</v>
       </c>
       <c r="B17" t="n">
-        <v>3.613384723663331</v>
+        <v>2.315335750579834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4577605649828894</v>
+        <v>2.114412546157837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.5864234924316392</v>
+        <v>-1.993824815750122</v>
       </c>
       <c r="B18" t="n">
-        <v>3.672312498092651</v>
+        <v>2.412744569778442</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3443028122186679</v>
+        <v>2.562826609611511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.3011162757873542</v>
+        <v>-2.099692916870118</v>
       </c>
       <c r="B19" t="n">
-        <v>3.594357490539552</v>
+        <v>2.386767387390137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.770095187425613</v>
+        <v>2.678394412994385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.450049781799316</v>
+        <v>-2.539734458923342</v>
       </c>
       <c r="B20" t="n">
-        <v>3.681126499176023</v>
+        <v>2.251132488250732</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6856440544128422</v>
+        <v>2.302260518074033</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.319336414337157</v>
+        <v>-2.798751735687256</v>
       </c>
       <c r="B21" t="n">
-        <v>3.02371916770935</v>
+        <v>1.147012233734121</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7831352591514585</v>
+        <v>2.277631902694703</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.073579788208008</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.642811775207524</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.430169939994816</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-4.291536808013922</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.572477817535406</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.254911422729497</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-6.406326150894171</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.793146014213552</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.593617057800286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.9536849975587334</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.1826061248779267</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.677957320213301</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32.34990999698625</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.490568253397939</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6328019738197053</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.651923894882202</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1518822014331817</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.22404146194458</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-4.871152138710036</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.64225258529187</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.566823816299431</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-6.492228031158454</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.64010591506959</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.834508514404282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.539169025421104</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.307969903945902</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.571132516860986</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.01956577301027</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.104999399185199</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.938691687583895</v>
       </c>
     </row>
   </sheetData>
